--- a/Cluster Define.xlsx
+++ b/Cluster Define.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataUoT\FinalProject_RoadTrippr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD6DE37-6147-48D2-BA68-F5D7DAFFF17C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70E4DA4-951C-4C0E-9B98-CCE42B7FEBA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7AA7B40B-F6A0-410F-AF29-EE06A3CEBCB9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
   <si>
     <t>churches</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Final Decision</t>
+  </si>
+  <si>
+    <t>PC2-PC3</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:S28"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +802,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="23"/>
       <c r="L4" s="21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
